--- a/src/main/resources/data/products.xlsx
+++ b/src/main/resources/data/products.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
-    <t>stri</t>
+    <t>laptop acer</t>
   </si>
 </sst>
 </file>
@@ -76,10 +76,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/products.xlsx
+++ b/src/main/resources/data/products.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>2</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>laptop acer</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -67,6 +73,12 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.36328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.47265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -75,11 +87,11 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>100.0</v>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
       </c>
-      <c r="D1" t="n" s="0">
-        <v>10.0</v>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
